--- a/Plantilla/TemplateProducto.xlsx
+++ b/Plantilla/TemplateProducto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tambours\OneDrive - Hewlett Packard Enterprise\Personal\Desarrollo\Repos\Cinderella\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stambour\OneDrive - DXC Production\Personal\Desarrollo\Repos\Cinderella\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,18 +117,6 @@
     <t>CodigoBarra</t>
   </si>
   <si>
-    <t>Efectivo_Tigre</t>
-  </si>
-  <si>
-    <t>Tarjeta_Tigre</t>
-  </si>
-  <si>
-    <t>Efectivo_Capital</t>
-  </si>
-  <si>
-    <t>Tarjeta_Capital</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>Mayorista</t>
+  </si>
+  <si>
+    <t>Lista_Tigre</t>
+  </si>
+  <si>
+    <t>Desc_Tigre</t>
+  </si>
+  <si>
+    <t>Lista_Capital</t>
+  </si>
+  <si>
+    <t>Desc_Capital</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,6 +298,10 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +612,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E9964" sqref="E9964"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +631,9 @@
     <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="14" style="30" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="34" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="34" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -668,28 +672,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="R1" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -703,9 +707,9 @@
       <c r="I2" s="18"/>
       <c r="J2" s="28"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="19"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="13"/>
@@ -722,9 +726,9 @@
       <c r="I3" s="21"/>
       <c r="J3" s="29"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="22"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="14"/>
@@ -741,9 +745,9 @@
       <c r="I4" s="21"/>
       <c r="J4" s="29"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="22"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="14"/>

--- a/Plantilla/TemplateProducto.xlsx
+++ b/Plantilla/TemplateProducto.xlsx
@@ -1,84 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stambour\OneDrive - DXC Production\Personal\Desarrollo\Repos\Cinderella\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_7EDEC1076F81AA5E7F7EFBC3E42A1FEEFCF24477" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{134E837C-8F7E-4278-9617-FA8F27854D35}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6765"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$A$1:$R$1</definedName>
-    <definedName name="Alfombras">#REF!</definedName>
-    <definedName name="Apliques">#REF!</definedName>
-    <definedName name="Arañas">#REF!</definedName>
-    <definedName name="Arboles">#REF!</definedName>
-    <definedName name="Aromaticos">#REF!</definedName>
-    <definedName name="Bandejas">#REF!</definedName>
-    <definedName name="Biombos">#REF!</definedName>
-    <definedName name="Cabeceras_de_Cama">#REF!</definedName>
-    <definedName name="Cadenas_y_Tapas">#REF!</definedName>
-    <definedName name="Caireles">#REF!</definedName>
-    <definedName name="Cajas">#REF!</definedName>
-    <definedName name="Caminos_de_Mesa">#REF!</definedName>
-    <definedName name="Candeleros">#REF!</definedName>
-    <definedName name="Carteles">#REF!</definedName>
-    <definedName name="Categorias">#REF!</definedName>
-    <definedName name="Centros_de_Mesa">#REF!</definedName>
-    <definedName name="Colgantes">#REF!</definedName>
-    <definedName name="Cortinas">#REF!</definedName>
-    <definedName name="Cuadros">#REF!</definedName>
-    <definedName name="Cuencos_y_Bases">#REF!</definedName>
-    <definedName name="Espejos">#REF!</definedName>
-    <definedName name="Fanales">#REF!</definedName>
-    <definedName name="Faroles">#REF!</definedName>
-    <definedName name="Figuras">#REF!</definedName>
-    <definedName name="Figuras_Talladas">#REF!</definedName>
-    <definedName name="Floreros_y_Jarrones">#REF!</definedName>
-    <definedName name="Flores_y_Esferas">#REF!</definedName>
-    <definedName name="Fuentes_de_Agua">#REF!</definedName>
-    <definedName name="Guirnaldas">#REF!</definedName>
-    <definedName name="Habilitado">#REF!</definedName>
-    <definedName name="Imanes">#REF!</definedName>
-    <definedName name="Individuales_de_Mesa">#REF!</definedName>
-    <definedName name="Lamparas">#REF!</definedName>
-    <definedName name="Macetas">#REF!</definedName>
-    <definedName name="Medias_Pantallas">#REF!</definedName>
-    <definedName name="Mesas">#REF!</definedName>
-    <definedName name="Mesas_de_Arrime">#REF!</definedName>
-    <definedName name="Mesas_Ratonas">#REF!</definedName>
-    <definedName name="Metal_y_Chapa">#REF!</definedName>
-    <definedName name="Moviles">#REF!</definedName>
-    <definedName name="Muebles">#REF!</definedName>
-    <definedName name="Navidad">#REF!</definedName>
-    <definedName name="Pantallas">#REF!</definedName>
-    <definedName name="Paragueros">#REF!</definedName>
-    <definedName name="Percheros">#REF!</definedName>
-    <definedName name="Portabijouterie">#REF!</definedName>
-    <definedName name="PortaCd">#REF!</definedName>
-    <definedName name="PortaLapices">#REF!</definedName>
-    <definedName name="Portallaves">#REF!</definedName>
-    <definedName name="Portarretratos">#REF!</definedName>
-    <definedName name="Porveedores">#REF!</definedName>
-    <definedName name="Relojes">#REF!</definedName>
-    <definedName name="Revisteros">#REF!</definedName>
-    <definedName name="Textil">#REF!</definedName>
-    <definedName name="Varios">#REF!</definedName>
-    <definedName name="Veladores">#REF!</definedName>
-    <definedName name="Velas">#REF!</definedName>
-    <definedName name="Vidrio">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
@@ -331,7 +280,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -609,13 +558,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,51 +704,42 @@
     </row>
   </sheetData>
   <sheetProtection deleteColumns="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:R1"/>
-  <dataValidations count="15">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El código barras ingresado no debe estar vacío y debe tener 13 dígitos." sqref="J2:J3">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El código barras ingresado no debe estar vacío y debe tener 13 dígitos." sqref="J2:J3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1000000000000</formula1>
       <formula2>9999999999999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>Categorias</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
-      <formula1>Porveedores</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Habilitado</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El Nombre ingresado no debe estar vacío y debe ser menor a los 255 caracteres." sqref="C1:C1048576">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El Nombre ingresado no debe estar vacío y debe ser menor a los 255 caracteres." sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="I2:I3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="I2:I3" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>NOT(ISBLANK($I2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="K2:K3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="K2:K3" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>NOT(ISBLANK($K2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="L2:L3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="L2:L3" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>NOT(ISBLANK($L2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="M2:M3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="M2:M3" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>NOT(ISBLANK($M2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="N2:N3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="N2:N3" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>NOT(ISBLANK($N2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="O2:O3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="O2:O3" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>NOT(ISBLANK($O2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="P2:P3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El monto ingresado no debe estar vacío." sqref="P2:P3" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>NOT(ISBLANK($P2))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>INDIRECT(SUBSTITUTE($D2," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El origen ingresado no debe estar vacío y debe ser menor a los 255 caracteres." sqref="G1:G1048576"/>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El código ingresado ya se encuentra utilizado." sqref="B1:B1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El origen ingresado no debe estar vacío y debe ser menor a los 255 caracteres." sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Valore ingresado incorrecto" error="El código ingresado ya se encuentra utilizado." sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>COUNTIF(B:B,$B1)=1</formula1>
     </dataValidation>
   </dataValidations>
